--- a/Analyzed/try2/data_2013.xlsx
+++ b/Analyzed/try2/data_2013.xlsx
@@ -541,13 +541,13 @@
         <v>2407.897</v>
       </c>
       <c r="L2">
-        <v>66.5</v>
+        <v>2327.5</v>
       </c>
       <c r="M2">
         <v>61.67308887548658</v>
       </c>
       <c r="N2">
-        <v>44.09999999999999</v>
+        <v>1278.9</v>
       </c>
       <c r="O2">
         <v>924.38</v>
@@ -580,10 +580,10 @@
         <v>6</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA2">
         <v>3</v>
@@ -592,7 +592,7 @@
         <v>3</v>
       </c>
       <c r="AC2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -632,13 +632,13 @@
         <v>2617.945</v>
       </c>
       <c r="L3">
-        <v>71</v>
+        <v>2485</v>
       </c>
       <c r="M3">
         <v>61.84098812895253</v>
       </c>
       <c r="N3">
-        <v>6.259999999999993</v>
+        <v>181.5399999999998</v>
       </c>
       <c r="O3">
         <v>1163.22</v>
@@ -671,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA3">
         <v>3</v>
@@ -723,13 +723,13 @@
         <v>772.88</v>
       </c>
       <c r="L4">
-        <v>61.6</v>
+        <v>2156</v>
       </c>
       <c r="M4">
         <v>58.99573590473404</v>
       </c>
       <c r="N4">
-        <v>76.77000000000001</v>
+        <v>2226.33</v>
       </c>
       <c r="O4">
         <v>922.76</v>
@@ -762,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>3</v>
@@ -814,13 +814,13 @@
         <v>1661.549</v>
       </c>
       <c r="L5">
-        <v>64.90000000000001</v>
+        <v>2271.5</v>
       </c>
       <c r="M5">
         <v>58.22344060801355</v>
       </c>
       <c r="N5">
-        <v>65.65000000000001</v>
+        <v>1903.85</v>
       </c>
       <c r="O5">
         <v>814.37</v>
@@ -853,10 +853,10 @@
         <v>2</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -905,13 +905,13 @@
         <v>888.383</v>
       </c>
       <c r="L6">
-        <v>56.3</v>
+        <v>1970.5</v>
       </c>
       <c r="M6">
         <v>69.26454791687914</v>
       </c>
       <c r="N6">
-        <v>59.76000000000001</v>
+        <v>1733.04</v>
       </c>
       <c r="O6">
         <v>901.55</v>
@@ -944,10 +944,10 @@
         <v>1</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -996,13 +996,13 @@
         <v>1446.274</v>
       </c>
       <c r="L7">
-        <v>60.5</v>
+        <v>2117.5</v>
       </c>
       <c r="M7">
         <v>72.4089075517833</v>
       </c>
       <c r="N7">
-        <v>5.190000000000001</v>
+        <v>150.51</v>
       </c>
       <c r="O7">
         <v>887.38</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA7">
         <v>3</v>
@@ -1087,13 +1087,13 @@
         <v>861.3829999999999</v>
       </c>
       <c r="L8">
-        <v>51.6</v>
+        <v>1806</v>
       </c>
       <c r="M8">
         <v>65.74304987240535</v>
       </c>
       <c r="N8">
-        <v>18.48</v>
+        <v>535.9200000000001</v>
       </c>
       <c r="O8">
         <v>968.5</v>
@@ -1126,10 +1126,10 @@
         <v>2</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>1</v>
@@ -1178,13 +1178,13 @@
         <v>1564.649</v>
       </c>
       <c r="L9">
-        <v>57.7</v>
+        <v>2019.5</v>
       </c>
       <c r="M9">
         <v>68.66769437698096</v>
       </c>
       <c r="N9">
-        <v>31.24000000000001</v>
+        <v>905.96</v>
       </c>
       <c r="O9">
         <v>1008.89</v>
@@ -1217,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z9">
         <v>2</v>
@@ -1269,13 +1269,13 @@
         <v>1656.189</v>
       </c>
       <c r="L10">
-        <v>47.8</v>
+        <v>1673</v>
       </c>
       <c r="M10">
         <v>80.42370746722028</v>
       </c>
       <c r="N10">
-        <v>34.39000000000001</v>
+        <v>997.3100000000001</v>
       </c>
       <c r="O10">
         <v>964.05</v>
@@ -1308,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA10">
         <v>0</v>
